--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/41_İzmir_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/41_İzmir_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C401E7F3-93E5-4AB4-8FF6-F7345A974114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{439BF65A-8619-445C-9982-D8EE86D828DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{37569133-35AA-4556-AD8F-9A5EF7E31985}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{361C1A9C-7759-40CE-9413-9BAF84033F78}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{9124519D-F193-4D69-BFBE-C99585090450}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{ADEAB663-7D24-4959-A0A0-1ACD7C842B2A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{5B65EDEC-D686-48D0-BCA5-8438445AFC8E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{80C68AC3-53A2-4D33-AD39-E0C6F2BCE1B4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F5558C48-8CA4-48D6-96E1-E85E40599E72}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FF5F8056-2A13-4838-B1F6-C35E6C4134AE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A237C749-A121-46BB-9A77-228F7DF35B49}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6B6EB123-BF49-481E-A2AE-B717FCD8F843}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0046F7A5-7B9E-445C-ACCE-FD79E9EDD742}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{932F56E7-268E-4992-A07F-9B50B8DB2BCE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3D287DFD-F347-4B2D-A9D6-A46ACE7B0447}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3AEB5109-8D59-4D08-96B3-50779ECF96FF}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{687F36BF-11C5-4FFA-A074-E1D306E1BD9A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5428F4B9-7076-46FB-8E41-A53D5CABA6A7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB063391-C2D1-4FF6-AA3F-8BB4D5B00CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6593754-EFF6-49D0-8EE7-4A2E00C46B2E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2592,18 +2592,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88252DA4-240E-45A7-B330-798CB0C82122}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E61D1484-9221-45F2-B354-C680426E25C6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66DFE570-9C90-461D-95B3-6BF92889720D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{965DCF76-EBAF-408C-A90E-51DB7D4D522B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0437AA6D-F0A7-4234-AE8C-1740ACF5FDC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{357C3F15-A4FB-491D-AFB0-C8A0A17F418E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D1060CE-6EEC-4DB3-ADFA-0F52F65183DA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7FB10663-4796-4302-B106-188A1B31B2EA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{45503F05-62C7-4ABA-AEDE-B654905F88A9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E79B91A4-4820-41AB-AEA5-7D161699F54D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68DC81C9-D919-43CD-B153-836D6670EA2C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55C3796E-9AF9-4E45-9CFE-7CA0341D9DD1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8EE7D27-B1CE-40AF-B0A7-26D81193BAE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92DA0F04-28FE-4AE3-AD03-EA33264E2BFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8ECB2379-CE77-4504-8A6D-FA4314DC5429}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90D021BA-F8EC-4643-AF42-22C0412013BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27EC2F06-C605-465D-9042-D9E37D494E5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15F86C85-47BF-405A-B9AE-886FBFC366C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE0B8436-550E-4A83-BA29-A8A5D8802CC8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EF64B65-E395-416D-A889-07D22993E14E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23FD3BEA-BE11-43AB-9F1D-D0863DF400A0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1AD4F1DE-7DF8-4AC3-A44A-2D41E5886724}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD3BDBDE-A031-41F9-9992-A8B5545F89AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A6A23BC-B447-4578-828B-EFA4A3DAA5C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3F6EDE-D4EC-4FE4-B312-23642672FAF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E5A6E5-F322-4F23-B307-0D7F442C4AB6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3880,18 +3880,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07F897C5-DB75-4C19-B7A8-B983F27A41CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32E8B9A8-17A3-4DED-A437-D838D7D7C1D5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B470FB3C-7A2B-45FD-8B24-64FE55F48DE7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F38F53E-AC77-4476-B799-C990201AFB5D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3202FE7C-0FED-4B8D-A86D-608EF627561D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08C3B779-A9B8-42C1-A0A7-204C3D46195A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCFB5E80-046B-402D-9776-4F02889C3E65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2173F30-1AC1-462A-9815-56319693E47D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{343D4E03-52AD-47F8-BD05-F3C8201DEE06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F8BFF40-107E-47B0-A786-1988E14C7666}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE6B0B4A-9308-47C8-AFDC-94E0447746A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1DC89C45-444E-4BFF-8D45-84E78009EEC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3547EE70-F554-4565-88C3-343D97828CA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{806411F8-5D76-4136-85A6-6CFCAC74AE64}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A2E2CAD4-657E-4A74-8686-AB1114A7A02D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7B96788D-1F2B-4F8A-9AD0-DA848046BEAC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC65425C-F963-4DA1-AC27-51ABF8B0A74E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20B01085-21D7-4652-8F24-F64C94271261}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12AF1CB1-26AA-4490-A568-69C0CE9A488C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43B00DB3-9F35-42B4-90E3-B686B09E6BBA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{08411CBF-92AD-44D5-97FE-6E19946D30E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D18FF615-63ED-4285-BDC6-969D6AC787AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C2C8CE4-432A-400E-A5FC-671D4954D0EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D2D8415-BF17-4994-BB57-F640AC43FB07}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FBCB8-B55C-4118-801B-0B3D0C2E0205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476FC5A0-F5D6-4261-BE1F-20322A832A86}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5168,18 +5168,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A99129D-62DF-444C-8D10-BCB5FB885EB8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78F527E9-75C7-48CB-A97F-73AA703AACE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55B9C307-51EC-4CE7-81A0-498F2B9CE6F1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D0C9EF2F-E683-42FB-8496-E2F9F9307F07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8B76280-D7E6-4CB2-9F91-7548D1FBC4DA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29029C64-D30D-46E3-9077-1D13E534E332}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD02A455-7538-4749-832A-C917C1508F21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2F9AFF9-BF3C-4646-A6DF-A48EDCB661B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE2145DA-2F2C-417C-9EA8-E4F9B5868D17}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A45B019-F630-46EF-86A5-D8E25B6EAC52}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BFE7EA86-C7EF-40E6-BD87-24E325D6AF37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E26691FB-145E-453F-9100-617A8748B770}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4904A8B6-F221-43AB-96CE-86988317AC01}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA128DC5-D13E-484A-87E9-1FC2BC6746FC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3A30A161-83F3-40DD-8813-759D3DE247B7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C6D38526-0AB9-4AC4-80FC-E655CA5E99CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B2EABE6-D25A-4884-8B87-581656D544B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{548545A1-8DEE-4D3B-A09E-54F10B11CD10}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD36AA3A-9DF5-4FEC-AA42-92BE5D257EF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACBD81C3-45E8-4767-B12C-73F35C3968CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{365D28BD-9114-4C17-9B5C-301BE227DF81}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61F58731-034D-43D5-9E7F-6D0F27E8B484}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E157D863-D7FD-42D1-B7AA-DF46831C87FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7AB5D1F-EF38-48C7-B0DF-C4BF4A590293}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5192,7 +5192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA8F106-A41D-4F35-98AE-2C2C350C1CCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3142B04D-25FC-46EC-B245-D50B29D1CA76}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6452,18 +6452,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2671280A-46B0-4EFC-89D3-A23A5726B501}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{446DA94E-1934-44AE-82C8-2A51D88438FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{712C3153-6F8B-446E-8F83-569FCCBEC3C4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{29BD6C27-6215-488E-A6FD-2AC141DA8450}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDF8B276-3736-4AC2-8E11-D8DF359F5889}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6E029F0-9B0A-4B65-9949-DF3AFDDDE60A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECE79466-2FA2-4DA6-89D7-9C5A9B382A4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0BDB47E-D737-4CCA-86DF-19AFE38CAB87}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B72A8FEF-8B61-46DF-9ECB-062A0A45C8C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DCBBCF8-1C54-49F1-9EE1-E7D0A08FC496}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F78C0F2-500F-4629-BC15-87C697818736}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4D4A39A-6832-4A80-BB4C-CC8FA5AB5263}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1FB1BD2-CE44-4706-A90B-FEF3D4327CA9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76A7804B-8438-476B-A93A-4F5C5B41B350}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BE088099-734D-41EE-9ECE-363DCAE2C339}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BF10AB31-8C4D-419F-8B6A-0FFB338372BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF2CCCA2-3DB4-4180-9355-DF61611C4434}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B018FEE-3661-454E-AA72-EEE1F33E467D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77DC3820-606C-4AB4-A4E3-207B0DC6F0EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81D3B98C-F93A-4FAF-8DC7-F34C706776F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5963F6B9-E0A8-4CD0-9C2B-BE80867CEA4C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD5D2DF7-91E7-49A3-969D-8C4A23563538}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{903C1A80-F0E9-44BE-9C7F-6665483B1D69}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B7BC86B-64C3-4C60-8BB1-77A51C3D71C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6476,7 +6476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA96778-1D9D-486B-8B85-AE05554B0B67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87719F60-DF7B-4618-9132-66BEF03340AD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7755,18 +7755,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{179DAC6F-04BF-4203-8086-D35C0FF3DFDA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71949F1E-7F91-4F4E-9E1C-29177BDCCD8A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2B42C9FF-BEA9-4F81-B468-87B99407199C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85DD5886-85CA-4E96-B82E-2F79AE3044AB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{170F98BD-F71A-43D3-B9FA-FBFC07268DFD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9816C73C-4E9B-497A-8C6B-14E45952EA6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CA5A1DB-6529-445A-B317-D727CE396B91}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{411FA105-0F9C-4607-BCAF-F80CE01B5F04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E23DA14D-20FC-47E6-B5DE-87BBB1388F4D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6BA2AF0A-E178-4FAC-9487-C86ACA9E1780}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7C06833-BE85-4B24-B335-5804C5D0B7F3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{784AED9C-2BF9-44C4-8FD9-35F78D05BFD7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F4039D5-249D-4FDC-A4AE-145B2EABF566}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C567E6FC-495F-47CD-9024-235B23CBADCB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67BFB3E0-F728-48A2-A9BA-5EB4FCD4106A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{549B28F1-9144-46DA-839D-E52EBF9BE406}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F41DB9CF-A7FE-4B92-BD45-5225C04EE01B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E00088B-03AE-4FEA-91A2-674D85CDDDE5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2287A47-072D-4634-A97B-B0168CC5487D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83CD9645-C57F-4C56-8E76-056FB5A8047E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DE19488-1F56-4177-9134-EF188A6F8FA9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E02EBAD2-B473-4632-8B11-B07F2617F50B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21372DF5-6D0E-4178-B866-74B1D5D0F007}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52C1D440-ECC0-46BD-B742-1CA80EB53470}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7779,7 +7779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761CBDAF-7274-449A-8441-7F56E53A4AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972508EF-098B-4A46-A9D3-F96DD7754F24}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9058,18 +9058,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4F1297A-2D74-45FD-8EA9-EAEDC6D0F656}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54038118-B0B1-4D7B-B03A-225AB70D3692}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB0DEF70-71D6-46B4-85E1-2BCF13B6FD52}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5E2E3AD3-4050-4137-8B4C-68AC63692BDC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FCA87A4-87E4-4B90-A657-D5DAA0300ACA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B70D66C-62EF-4D1E-B25A-EDEE58AC0975}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69D1E564-527C-4719-9220-90C0E1204A6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F209CCD5-218F-40E0-BE9A-EB8CACCE989E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA9D2CC8-577B-4087-AF62-AF8B1B87DFA9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9A31F1F-CF38-4A71-BF62-9474793E015B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D63F9D58-CFDD-45B0-A1AD-0B6A15922BAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E4B175C-4393-4609-AACF-E359131FAC14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A572F2EC-AC42-4FEC-A343-FABBA6AB1810}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FD613A1-B2F2-4E60-96C6-F07F10E5ED08}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5877FB6C-6A08-4311-A180-B5C307B85066}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DA4CE1ED-D047-4DCB-89E1-A17115A46A12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BECA0964-8ED4-4C5A-B3CF-CF3775628F07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{64931BC4-6026-4C6E-99C1-A9B5654DC301}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{235DA8A2-31E5-468E-9950-7C374901F7DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F3E0FB3-EC7F-46AF-9B4A-95ED2D1464C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70AF92F2-6085-445C-9431-9D4A63952571}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD256695-DABC-4139-BE0B-27D7A38E125E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6AB4D1A-9896-4209-9BBA-5EF2C915350B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64870896-0A18-40F3-9651-67C49915DD90}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9082,7 +9082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B617BBE1-1BA7-4F70-9377-4CD55E6B068E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07027383-416F-49EF-A654-CB9FBF450331}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10361,18 +10361,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CCF6C000-CADF-4C2A-A511-40BC0E1A473A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25EC4805-A4DE-4650-94EB-21727DC4F190}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{48BD0EFE-2EB2-45E0-BA96-97E475BC045E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{523A7886-8897-4390-A9E6-756BB6319335}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C9217CD-E603-46FA-8847-8732523D2668}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB900E4C-3BAB-4538-A81E-1B09FCAC4A7F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFA685C9-FD14-4639-BDD5-49C55454226A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{582CC604-C254-4F65-AC4E-D9E44E9AE8B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1DA19B7-16BB-4C11-9454-642B02BE12B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3550F3B-5996-463B-9DC7-CDDAA823BE72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE6382F5-0D35-4BB7-900D-ADC01CCF5B07}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6AE5F8DA-0C3E-4B89-B6E4-1165DE908B96}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7DD90226-3F74-4E59-99E3-3916E22A8315}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65DF36EE-D6BD-4B3C-A791-C8BA1D257B1F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{587657CA-43F0-4A5D-8185-A7D7D23F9DDC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{473BFA86-5C8F-4EDA-9CDA-467FDC301B6D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{72E1699E-E0C7-421C-80F7-E56098193CD3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0EC95E0-1EBD-41C6-9207-6A33AF61B7E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35B41F63-52F2-4CF2-813D-ACDE9D1FDB25}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3609C94F-BC25-46E6-BD4F-FB3D82BD99F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{027813B1-4D60-4CB1-9620-3B5AA4B0D1FA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E58B6002-94D6-46E0-BFC0-C2D581CD81DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29D03A6C-FB25-406D-B554-075F668455B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6803185F-1AE0-4250-B89C-F5CADF3DA947}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10385,7 +10385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0497B5-7889-4B81-A344-15E196A7135C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BE8088-ACC5-475D-BE34-10085533619E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11662,18 +11662,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40547C82-90AC-43A1-884E-39BFBCD59419}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72522ACA-381F-4213-8544-518B25ACC92C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23BA1BB2-70FA-430A-89C9-B07BE1A08815}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{38CED190-ADAE-4B9F-B9DA-40EE51D94510}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51A1CF38-2FEF-4DA1-AF2D-9F4FF81D2B97}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7E392D8-0E5D-4349-8A00-BD03BD6F07F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB895AF8-5198-4F62-B55F-C015B14A91A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB6290B9-CFB1-4ACB-BBA9-002F956A8206}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{374C18A8-B4E6-468A-9ECA-53186F9107F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CBB7F02-21FB-4800-B22C-A9A1AF962D2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{245554F1-62CD-4A2A-9E31-54DCE6EF78B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3132A76B-D13A-4799-85BF-A3E9B271FAC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33E0C2EF-6AB0-44D6-8BCF-4877EC45536F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{174FAD29-3CAB-4B3D-A98A-A06835F5C70E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BF7E7E2-4711-400F-8CB8-44570DE18A7E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B13D321-611A-4909-9E14-D9D38B97C937}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2155582-A005-41E5-ABC3-37FBCA43ED0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E78D527E-C5CF-46D8-8F1A-6736D44C2A2A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81243F52-6B68-4F94-AEE6-B8CE7BB1C67E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDA03121-F29D-405F-97A2-A31EA180563C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A549B97-A208-47FC-8FFD-09BE3010499E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B11C99E1-EA5C-47FD-A39E-3913ED0DA051}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D2D6805-3D77-46A4-A2DE-D2353AEE3A5A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A97A1F1C-C08E-4EE5-BD68-1D03EF975D5B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11686,7 +11686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568C1296-65AB-444A-9B4F-D5EB82D4BD45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2A539F-1CA3-42F9-9717-A8EDFA7688CA}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12953,18 +12953,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{231069AC-D70A-419B-909B-05AF1123417A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9ADCD77-310D-4C1E-B250-5D0BF0B4CF3F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E49E15E-211C-4250-A4DF-5EB74CC29E1B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FAE4EF68-5351-4B76-B2BB-ABCFC9960292}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2C52690-B9CC-4461-BB9A-EC563ACD3AF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79ABF184-8022-4E84-989A-1722CAC2CFE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3E61436-0D25-46D2-B719-CF593EB5C84E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDD7C534-982B-4113-94DA-00FF1F741539}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AEB84937-9888-4F3F-9F82-C18F9CCEC609}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F85DBA28-4A6F-4750-AD59-E94883BD3D33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74F69223-784B-4FC6-845D-90D5E2B7EA4E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C355AF9D-5490-4FF9-A2E1-8C95B2D333CD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6E1AD50-822F-4138-98C9-02414D0278B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD284698-E2DB-466E-BEBF-E0A893A9CA17}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E092DF7E-0E08-4775-8FEE-0859A82F8BC5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99DB6614-0726-4054-9D5E-763C5A8CCAFB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{424791EC-309C-4993-8008-AB46A91F1866}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F30F5BD8-22F2-4ED3-B59A-4E59C40A7CB2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E63BEA34-6F0D-4769-A489-9CA74887EDD7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB1A5910-CC65-4D62-98C1-C9DE9E0A69DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C951F6BE-F5E9-43DA-B981-A5D9CAAE7F17}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C425C76-9A07-4E6E-BBD2-9B3B196CD12E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93DFED97-2350-4CF8-A713-74A508F72EDB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B9297BB-6C6D-4341-972B-D3C241BAD06C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12977,7 +12977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1EF062-050A-44AC-AD1F-1B4C2B363CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECD56CE-ECBA-449A-B2CA-4C7A4627D7BB}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14247,18 +14247,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D3D065C-8F58-4920-8209-FA4B0FA7B4E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14E6A084-26F1-43B6-A84E-162CCDE15D2E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8C341A3C-41E4-42AA-AF4F-7045118B233F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B848FCD-0660-4D4F-9C72-8E1F0AC4E2C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A88A4E6-D079-4404-ADF7-A12039471EEB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C80ACA0-1B94-48DC-BF65-9145CF660BAF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{901DB91B-47B5-416E-852A-C70622DF35DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A64A7B39-78F7-46E7-8327-1D055415DD80}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{164616A8-7DB5-49FF-B266-ABF9CC10E3C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42803E6C-AFA2-4D98-9E1B-A56496292CC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C64A078-9129-42F2-8482-A724CD54D8C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47F3CCE3-7388-4227-9138-2C4337C5A82A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58FA7063-66D0-4725-A812-BA42883CA95E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36E5CEDC-0849-4E99-83E3-959446E6D671}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D6584F1-4840-4364-AF10-982CF992EDB7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BF2724BB-C8B2-4DDA-A47D-0111F3BC729D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD99896D-232A-4E24-92A8-3687E920097C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8E29E5D-0161-4EBA-AA4E-8C7ECD894638}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88AB40A4-0072-47DA-A08B-70C97D3AF666}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91940413-DA69-49F0-9D0E-2CFEBB147338}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20ABA8A1-16F6-48E8-99EB-522D36E8B934}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B28B0D80-598E-4A41-8596-0F55B021CB78}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4481D15C-15F7-4A32-9BED-2045D0F4AC9A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA74CC2E-E8ED-4BA9-B6C1-02C7AAFD499A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14271,7 +14271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645D03D9-2C57-45AB-9655-ECC65C76B0AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEFEB37-725D-4B89-AFCA-45890B379BF5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15539,18 +15539,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{414E5DDD-F8D5-46CB-8ED0-6DE6200D613A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{993BC09D-2139-4AF9-8B77-E9C80F369D74}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{45EEFA47-3D4E-408C-B744-18EC758261D8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{65ABF558-0DD6-4F83-9A59-767EFFC49577}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19906D3E-1E56-490A-AB50-E9DDAE476169}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{204844B1-2197-4FE1-AE00-D56AA9856AD9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72592519-651B-4BBB-A836-3FD0DD397B70}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5353CCF9-26E5-41B8-A206-0BE745AF181E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F843DA1-0B00-4573-8297-4C93DDEF00E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{95EC8742-61D3-4532-9F44-EBB78F61C052}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A78EC107-FEED-48CE-A9D3-25BFA010C98B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{740C70B9-82E7-468B-AE66-4971BD27B344}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C30B6FB-0922-4297-BD58-87DC6300286B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D9B75DB-B58B-402B-A5E0-5F4E034142A0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9D00D433-DDA8-4A77-9140-66291175598C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1960B833-6F32-49EF-9CB5-5C82066E9DC3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B1DE44C-1B9F-4B79-B725-9E5FADD1B3B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F61DC8C-B8CC-415A-88F6-0C7E146291B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9719123D-4009-430A-AF71-090269A43E2E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DB150DE-965D-4A65-B15A-64D3DEF00C4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B85E9ADB-6C66-4E0A-843C-1B62F227710C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27B7A8E3-287D-484B-A7A1-645CDF8D6C81}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6E343EC-157D-4C58-AD57-D2539D309E73}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3C1B1DD-645B-4625-B3F6-82AE0FD6A5FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15563,7 +15563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78A5EB5-A111-44A8-8A58-95B6688C70B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31D7680-A6B2-404B-9BDB-EA63FC8F1134}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16827,18 +16827,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{866DD49F-687A-4052-BB85-674D216287C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1A293E2-CD04-4890-BDC8-F57CF91CE383}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F214AD8-3F09-48E1-B9AF-EE20D880502F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{145D62A0-878F-43FE-BE2A-18CAF5F46ED8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B76DE1F-599F-4AE2-9041-0F840363A506}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A409CED7-34F3-4FE4-B27F-CD8C39265D4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{391F2974-04DC-456B-BB45-B07FE6EFA3EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4441FB96-F902-4293-89B3-1787D86A9458}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32B87A03-B85E-43CD-AF0D-79ECA7C61A0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA3CBFA0-0085-40A5-BDD1-D12A73D3FA73}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CAB0C4CA-2621-4BE6-AAEA-B4ECAA6B9A98}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C453897-AA26-40C7-9BCA-2DEA3F8BFAA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A6C7698-31D4-407F-B86C-356181807B4C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC867495-3541-4234-A339-9AEADF6BB5A0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A562268-D390-450D-95E1-CA89DACFEF3B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7B35A0F9-390F-436E-8BDA-51A55CABEDEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F5ADA0C-8DFD-4651-9710-091AD8523961}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1743699-1810-4983-9C9F-04286BDF9595}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70F7F208-5E24-4EEB-8AF1-9AE686EEB308}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E9FC5C6-E1C3-4D24-8EBA-37FA169E3B34}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F71E1C61-EBFB-48A8-908A-2E69E5D9EBBC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3BE03E41-DFC0-4A79-9B16-3E87B2D4C9D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C5873D3-3166-4C79-B896-565680E01F74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8247B7F5-3EED-406E-80BF-CC4DB9EDDFEA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
